--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB8081-0039-4470-973F-0D350D95046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D09E1D-7819-40E9-9583-C15DFDA037FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,422 @@
   </si>
   <si>
     <t>Device size(LxWxH/mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000002</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\S8050_JSCJ_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>JSCJ(江苏长电)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\02_Semiconductor.SchLib</t>
+  </si>
+  <si>
+    <t>C105433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\S8550_JSCJ_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>150MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-02-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-02-00000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000003</t>
+  </si>
+  <si>
+    <t>SF-02-01-00000004</t>
+  </si>
+  <si>
+    <t>C155223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-02-00000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-02-00000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZT653TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZT753TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C85794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\FZT753TA_DIODES_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\FZT653TA_DIODES_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>DIODES(美台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mmx6.5mmx1.6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3mmx2.5mmx1.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C509795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROHM(罗姆)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-02-00000005</t>
+  </si>
+  <si>
+    <t>SF-02-02-00000006</t>
+  </si>
+  <si>
+    <t>2SC3906KT146R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\2SC3906K_ROHM_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>3mmx3mmx1.3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SA1514KT146R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5120590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\2SA1514K_ROHM_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SC3906K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SA1514K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWGMC(台湾迪嘉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
+  </si>
+  <si>
+    <t>5.2mmx2.7mmx2.2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>NPN三极管-S8050-Ic=500mA/Vce=0.6V/Vbe=1.2V/Vcbo=40V/Vceo=25V/Vebo=5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-S8550-Ic=-500mA/Vce=-0.6V/Vbe=-1.2V/Vcbo=-40V/Vceo=-25V/Vebo=-5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN三极管-FZT653TA-Ic=2A/Vce=0.3V/Vcbo=120V/Vceo=100V/Vebo=7V/hFE=25~300-DIODES(美台)-SOT-223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-FZT753TA-Ic=-2A/Vce=-0.3V/Vcbo=-120V/Vceo=-100V/Vebo=-7V/hFE=25~300~400-DIODES(美台)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN三极管-2SC3906K-Ic=0.05A/Vce=0.5V/Vcbo=120V/Vceo=120V/Vebo=5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-2SA1514K-Ic=-0.05A/Vce=-0.5V/Vcbo=-120V/Vceo=-120V/Vebo=-5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SS36_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管-SS36-Imax=3A/Vf=0.7V/Vdc=60V/Vac=70V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SS34_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>肖特基二极管-SS34-Imax=3A/Vf=0.55V/Vdc=40V/Vac=28V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1-13-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\BZT52C5V1_DIODES_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>C526491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
+  </si>
+  <si>
+    <t>3.65mmx1.55mmx1.05mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压二极管-BZT52C5V1-Vz=5.1V/Vf=0.9V/Ir=2uA-DIODES(美台)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000005</t>
+  </si>
+  <si>
+    <t>C727082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>-65℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\005-Doide.PcbLib</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +610,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -487,11 +909,11 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
@@ -562,6 +984,607 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02903819-7B6E-4E58-A0F4-A3DE2DF95D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778CC10-6B32-4CFB-AFDA-A9D1D0217EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="207">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,507 +274,547 @@
     <t>SF-02-02-00000005</t>
   </si>
   <si>
+    <t>2SC3906KT146R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\2SC3906K_ROHM_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>3mmx3mmx1.3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SA1514KT146R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5120590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\2SA1514K_ROHM_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SC3906K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SA1514K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWGMC(台湾迪嘉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
+  </si>
+  <si>
+    <t>5.2mmx2.7mmx2.2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>NPN三极管-S8050-Ic=500mA/Vce=0.6V/Vbe=1.2V/Vcbo=40V/Vceo=25V/Vebo=5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-S8550-Ic=-500mA/Vce=-0.6V/Vbe=-1.2V/Vcbo=-40V/Vceo=-25V/Vebo=-5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN三极管-FZT653TA-Ic=2A/Vce=0.3V/Vcbo=120V/Vceo=100V/Vebo=7V/hFE=25~300-DIODES(美台)-SOT-223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-FZT753TA-Ic=-2A/Vce=-0.3V/Vcbo=-120V/Vceo=-100V/Vebo=-7V/hFE=25~300~400-DIODES(美台)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN三极管-2SC3906K-Ic=0.05A/Vce=0.5V/Vcbo=120V/Vceo=120V/Vebo=5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管-2SA1514K-Ic=-0.05A/Vce=-0.5V/Vcbo=-120V/Vceo=-120V/Vebo=-5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SS36_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管-SS36-Imax=3A/Vf=0.7V/Vdc=60V/Vac=70V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SS34_TWGMC_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>肖特基二极管-SS34-Imax=3A/Vf=0.55V/Vdc=40V/Vac=28V-TWGMC(台湾迪嘉)-SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1-13-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\BZT52C5V1_DIODES_DS_20250329.pdf</t>
+  </si>
+  <si>
+    <t>C526491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
+  </si>
+  <si>
+    <t>3.65mmx1.55mmx1.05mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压二极管-BZT52C5V1-Vz=5.1V/Vf=0.9V/Ir=2uA-DIODES(美台)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000005</t>
+  </si>
+  <si>
+    <t>C727082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>-65℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\005-Doide.PcbLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000006</t>
+  </si>
+  <si>
+    <t>SMF5.0CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF5.0CA_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C726939</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000007</t>
+  </si>
+  <si>
+    <t>FR107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C727096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\FR107_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>快恢复二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快恢复二极管-FR107-Imax=1A/Vf=1.3V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000008</t>
+  </si>
+  <si>
+    <t>BZT52C3V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳压二极管-BZT52C3V6-Vz=3.6V/Vf=0.9V/Ir=5uA-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\BZT52C3V6_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>C726991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000009</t>
+  </si>
+  <si>
+    <t>SMF3.3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF3.3A_MSKSEMI_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF3.3A-Vrmw=3.3V/Ipp=25A/Ir=200uA/Vbr=6V-MSKSEMI(美森科)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKSEMI(美森科)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5175638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B540C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000010</t>
+  </si>
+  <si>
+    <t>C5338484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUNMATE(森美特)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管-B540C-Imax=5A/Vf=0.5V/Vdc=40V/Vac=28V-SUNMATE(森美特)-SMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.11mmx6.22mmx2.62mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000011</t>
+  </si>
+  <si>
+    <t>SMF5.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\B540C_SUNMATE_DS_20250330.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF5.0A_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C726891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000012</t>
+  </si>
+  <si>
+    <t>SMF6.5CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF6.5CA_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>7.98V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C726941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMF11A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMF45CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-01-00000013</t>
+  </si>
+  <si>
+    <t>SF-02-01-00000014</t>
+  </si>
+  <si>
+    <t>13.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF11A_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMF45CA_TWGMC_DS_20250330.pdf</t>
+  </si>
+  <si>
+    <t>C726900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C726966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF5.0CA-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF5.0A-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF6.5CA-Vrmw=6.5V/Ipp=17.9A/Ir=75uA/Vbr=7.98V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF11A-Vrmw=11V/Ipp=11A/Ir=2.5uA/Vbr=13.5V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF45CA-Vrmw=45V/Ipp=2.8A/Ir=1uA/Vbr=55.3V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF-02-02-00000006</t>
-  </si>
-  <si>
-    <t>2SC3906KT146R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\2SC3906K_ROHM_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>3mmx3mmx1.3mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-346-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPN_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNP_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2SA1514KT146R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5120590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\2SA1514K_ROHM_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2SC3906K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2SA1514K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWGMC(台湾迪嘉)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C727081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
-  </si>
-  <si>
-    <t>5.2mmx2.7mmx2.2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>NPN三极管-S8050-Ic=500mA/Vce=0.6V/Vbe=1.2V/Vcbo=40V/Vceo=25V/Vebo=5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNP三极管-S8550-Ic=-500mA/Vce=-0.6V/Vbe=-1.2V/Vcbo=-40V/Vceo=-25V/Vebo=-5V/hFE=120~400-JSCJ(江苏长电)-SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPN三极管-FZT653TA-Ic=2A/Vce=0.3V/Vcbo=120V/Vceo=100V/Vebo=7V/hFE=25~300-DIODES(美台)-SOT-223-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNP三极管-FZT753TA-Ic=-2A/Vce=-0.3V/Vcbo=-120V/Vceo=-100V/Vebo=-7V/hFE=25~300~400-DIODES(美台)-SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPN三极管-2SC3906K-Ic=0.05A/Vce=0.5V/Vcbo=120V/Vceo=120V/Vebo=5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNP三极管-2SA1514K-Ic=-0.05A/Vce=-0.5V/Vcbo=-120V/Vceo=-120V/Vebo=-5V/hFE=180~560-ROHM(罗姆)-SOT-346-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SS36_TWGMC_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>肖特基二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C727061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖特基二极管-SS36-Imax=3A/Vf=0.7V/Vdc=60V/Vac=70V-TWGMC(台湾迪嘉)-SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-55℃~+125℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C727060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SS34_TWGMC_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>肖特基二极管-SS34-Imax=3A/Vf=0.55V/Vdc=40V/Vac=28V-TWGMC(台湾迪嘉)-SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZT52C5V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZT52C5V1-13-F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳压二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\BZT52C5V1_DIODES_DS_20250329.pdf</t>
-  </si>
-  <si>
-    <t>C526491</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zener</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
-  </si>
-  <si>
-    <t>3.65mmx1.55mmx1.05mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳压二极管-BZT52C5V1-Vz=5.1V/Vf=0.9V/Ir=2uA-DIODES(美台)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000005</t>
-  </si>
-  <si>
-    <t>C727082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\1N4007_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>-65℃~+125℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用二极管-1N4007-Imax=1A/Vf=1.1V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\005-Doide.PcbLib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000006</t>
-  </si>
-  <si>
-    <t>SMF5.0CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF5.0CA_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVS_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C726939</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.0V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000007</t>
-  </si>
-  <si>
-    <t>FR107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C727096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\FR107_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>快恢复二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快恢复二极管-FR107-Imax=1A/Vf=1.3V/Vdc=1000V/Vac=700V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000008</t>
-  </si>
-  <si>
-    <t>BZT52C3V6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.8V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳压二极管-BZT52C3V6-Vz=3.6V/Vf=0.9V/Ir=5uA-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\BZT52C3V6_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>C726991</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000009</t>
-  </si>
-  <si>
-    <t>SMF3.3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF3.3A_MSKSEMI_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF3.3A-Vrmw=3.3V/Ipp=25A/Ir=200uA/Vbr=6V-MSKSEMI(美森科)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVS_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.0V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSKSEMI(美森科)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5175638</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B540C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000010</t>
-  </si>
-  <si>
-    <t>C5338484</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUNMATE(森美特)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖特基二极管-B540C-Imax=5A/Vf=0.5V/Vdc=40V/Vac=28V-SUNMATE(森美特)-SMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.11mmx6.22mmx2.62mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000011</t>
-  </si>
-  <si>
-    <t>SMF5.0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\B540C_SUNMATE_DS_20250330.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF5.0A_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C726891</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000012</t>
-  </si>
-  <si>
-    <t>SMF6.5CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF6.5CA_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>7.98V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C726941</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMF11A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMF45CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000013</t>
-  </si>
-  <si>
-    <t>SF-02-01-00000014</t>
-  </si>
-  <si>
-    <t>13.5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.3V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF11A_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\02_Semiconductor\SMF45CA_TWGMC_DS_20250330.pdf</t>
-  </si>
-  <si>
-    <t>C726900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C726966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF5.0CA-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.7A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF5.0A-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF6.5CA-Vrmw=6.5V/Ipp=17.9A/Ir=75uA/Vbr=7.98V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.9A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF11A-Vrmw=11V/Ipp=11A/Ir=2.5uA/Vbr=13.5V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF45CA-Vrmw=45V/Ipp=2.8A/Ir=1uA/Vbr=55.3V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-02-03-00000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C414015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场效应管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2N7002K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\2N7002K_MDD_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>MDD(辰达半导体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMOS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N沟道场效应管-2N7002K-Vgs=1.0V~2.5V/Id=0.3A/Vds=60V/Rds=3Ω-MDD(辰达半导体)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50℃~+150℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>13</v>
@@ -1242,52 +1282,52 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,52 +1335,52 @@
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,52 +1388,52 @@
         <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,600 +1441,600 @@
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="T8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="U10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="T11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2054,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>28</v>
@@ -2026,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>26</v>
@@ -2070,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>34</v>
@@ -2082,7 +2122,7 @@
         <v>25</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>35</v>
@@ -2126,7 +2166,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>48</v>
@@ -2138,7 +2178,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>52</v>
@@ -2182,7 +2222,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
@@ -2194,7 +2234,7 @@
         <v>50</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>51</v>
@@ -2232,46 +2272,46 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>58</v>
@@ -2279,58 +2319,111 @@
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>62</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778CC10-6B32-4CFB-AFDA-A9D1D0217EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A301F8-430A-46A1-96AA-8AE2BF9A2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,14 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7mmx6.5mmx1.6mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3mmx2.5mmx1.1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>175MHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +273,6 @@
     <t>G:\Library\Datasheet\02_Semiconductor\2SC3906K_ROHM_DS_20250329.pdf</t>
   </si>
   <si>
-    <t>3mmx3mmx1.3mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOT-346-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +343,6 @@
     <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
   </si>
   <si>
-    <t>5.2mmx2.7mmx2.2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Doide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +466,6 @@
     <t>G:\Library\AD_Library\PCB\102-SOD.PcbLib</t>
   </si>
   <si>
-    <t>3.65mmx1.55mmx1.05mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,10 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.11mmx6.22mmx2.62mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SF-02-01-00000011</t>
   </si>
   <si>
@@ -816,6 +792,24 @@
   <si>
     <t>-50℃~+150℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2mm*2.7mm*2.2mm</t>
+  </si>
+  <si>
+    <t>3.65mm*1.55mm*1.05mm</t>
+  </si>
+  <si>
+    <t>7.11mm*6.22mm*2.62mm</t>
+  </si>
+  <si>
+    <t>3mm*2.5mm*1.1mm</t>
+  </si>
+  <si>
+    <t>7mm*6.5mm*1.6mm</t>
+  </si>
+  <si>
+    <t>3mm*3mm*1.3mm</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1185,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>13</v>
@@ -1282,52 +1278,52 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,52 +1331,52 @@
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1388,52 +1384,52 @@
         <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1441,600 +1437,600 @@
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="U10" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>28</v>
@@ -2066,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>26</v>
@@ -2078,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>33</v>
@@ -2087,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>27</v>
@@ -2110,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>34</v>
@@ -2122,7 +2118,7 @@
         <v>25</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>35</v>
@@ -2134,7 +2130,7 @@
         <v>32</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>33</v>
@@ -2143,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>27</v>
@@ -2166,7 +2162,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>48</v>
@@ -2178,28 +2174,28 @@
         <v>50</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>52</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>53</v>
@@ -2222,7 +2218,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
@@ -2234,28 +2230,28 @@
         <v>50</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>53</v>
@@ -2263,137 +2259,137 @@
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>29</v>
@@ -2402,28 +2398,28 @@
         <v>25</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="T22" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A301F8-430A-46A1-96AA-8AE2BF9A2E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A23E59-801D-4746-9732-0A842D8D4908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,13 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000002</t>
-  </si>
-  <si>
     <t>SOT-23-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,32 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-02-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-02-00000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-01-00000003</t>
-  </si>
-  <si>
-    <t>SF-02-01-00000004</t>
-  </si>
-  <si>
     <t>C155223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-02-00000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-02-00000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FZT653TA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,9 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-02-00000005</t>
-  </si>
-  <si>
     <t>2SC3906KT146R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,9 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000005</t>
-  </si>
-  <si>
     <t>C727082</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,9 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000006</t>
-  </si>
-  <si>
     <t>SMF5.0CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,9 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000007</t>
-  </si>
-  <si>
     <t>FR107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,9 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000008</t>
-  </si>
-  <si>
     <t>BZT52C3V6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,9 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000009</t>
-  </si>
-  <si>
     <t>SMF3.3A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,9 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000010</t>
-  </si>
-  <si>
     <t>C5338484</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,9 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000011</t>
-  </si>
-  <si>
     <t>SMF5.0A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,9 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000012</t>
-  </si>
-  <si>
     <t>SMF6.5CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,12 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-01-00000013</t>
-  </si>
-  <si>
-    <t>SF-02-01-00000014</t>
-  </si>
-  <si>
     <t>13.5V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,14 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-02-02-00000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF-02-03-00000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C414015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,6 +740,69 @@
   </si>
   <si>
     <t>3mm*3mm*1.3mm</t>
+  </si>
+  <si>
+    <t>SF020100000001</t>
+  </si>
+  <si>
+    <t>SF020100000002</t>
+  </si>
+  <si>
+    <t>SF020100000003</t>
+  </si>
+  <si>
+    <t>SF020100000004</t>
+  </si>
+  <si>
+    <t>SF020100000005</t>
+  </si>
+  <si>
+    <t>SF020100000006</t>
+  </si>
+  <si>
+    <t>SF020100000007</t>
+  </si>
+  <si>
+    <t>SF020100000008</t>
+  </si>
+  <si>
+    <t>SF020100000009</t>
+  </si>
+  <si>
+    <t>SF020100000010</t>
+  </si>
+  <si>
+    <t>SF020100000011</t>
+  </si>
+  <si>
+    <t>SF020100000012</t>
+  </si>
+  <si>
+    <t>SF020100000013</t>
+  </si>
+  <si>
+    <t>SF020100000014</t>
+  </si>
+  <si>
+    <t>SF020200000001</t>
+  </si>
+  <si>
+    <t>SF020200000002</t>
+  </si>
+  <si>
+    <t>SF020200000003</t>
+  </si>
+  <si>
+    <t>SF020200000004</t>
+  </si>
+  <si>
+    <t>SF020200000005</t>
+  </si>
+  <si>
+    <t>SF020200000006</t>
+  </si>
+  <si>
+    <t>SF020300000003</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1178,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>13</v>
@@ -1275,770 +1268,770 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="S5" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="P6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="S6" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="T7" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="S8" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="O13" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -2050,51 +2043,51 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="N16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -2106,320 +2099,320 @@
         <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="S17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="S19" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="S20" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="S21" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A23E59-801D-4746-9732-0A842D8D4908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B6D0E-0529-461D-8B7B-A22605BBAD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1181,7 +1184,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2416,6 +2419,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B6D0E-0529-461D-8B7B-A22605BBAD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A44A07-C953-43DA-853E-D6A13AFC78D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,10 +1181,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1198,8 +1198,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A44A07-C953-43DA-853E-D6A13AFC78D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ADA62C-B256-4E0A-821D-C03E3B239AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,6 +898,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,10 +1187,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1198,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -1219,7 +1225,7 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1284,7 +1290,7 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1337,7 +1343,7 @@
       <c r="E3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1390,7 +1396,7 @@
       <c r="E4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1443,7 +1449,7 @@
       <c r="E5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1496,7 +1502,7 @@
       <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1549,7 +1555,7 @@
       <c r="E7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>162</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1605,7 +1611,7 @@
       <c r="E8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1658,7 +1664,7 @@
       <c r="E9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1711,7 +1717,7 @@
       <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1767,7 +1773,7 @@
       <c r="E11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1820,7 +1826,7 @@
       <c r="E12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1876,7 +1882,7 @@
       <c r="E13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1932,7 +1938,7 @@
       <c r="E14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>167</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1988,7 +1994,7 @@
       <c r="E15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>169</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2044,7 +2050,7 @@
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2100,7 +2106,7 @@
       <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2156,7 +2162,7 @@
       <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2212,7 +2218,7 @@
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2268,7 +2274,7 @@
       <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2324,7 +2330,7 @@
       <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2380,7 +2386,7 @@
       <c r="E22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>178</v>
       </c>
       <c r="G22" s="4" t="s">

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ADA62C-B256-4E0A-821D-C03E3B239AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DFE6D-33DA-4877-AA28-B5A99D9A4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="215">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,6 +806,37 @@
   </si>
   <si>
     <t>SF020300000003</t>
+  </si>
+  <si>
+    <t>SF020100000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4148WS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\1N4148WS_JSCJ_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>开关二极管-1N4148WS-Vf=0.715V~1.25V/If=0.3A/Ir=1.0uA/Vrmw=100V-JSCJ(江苏长电)-SOD-323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1185,12 +1216,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2036,81 +2067,78 @@
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="T16" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>27</v>
@@ -2122,7 +2150,7 @@
         <v>72</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>29</v>
@@ -2148,81 +2176,81 @@
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
@@ -2234,7 +2262,7 @@
         <v>72</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>52</v>
@@ -2260,81 +2288,81 @@
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>27</v>
@@ -2346,7 +2374,7 @@
         <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>52</v>
@@ -2372,54 +2400,110 @@
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>175</v>
       </c>
     </row>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DFE6D-33DA-4877-AA28-B5A99D9A4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F886AC-AEA5-4B0F-8111-27B17AEDC17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="239">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,10 +540,6 @@
     <t>G:\Library\Datasheet\02_Semiconductor\SMF3.3A_MSKSEMI_DS_20250330.pdf</t>
   </si>
   <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF3.3A-Vrmw=3.3V/Ipp=25A/Ir=200uA/Vbr=6V-MSKSEMI(美森科)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TVS_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,38 +652,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF5.0CA-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21.7A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF5.0A-Vrmw=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF6.5CA-Vrmw=6.5V/Ipp=17.9A/Ir=75uA/Vbr=7.98V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17.9A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF11A-Vrmw=11V/Ipp=11A/Ir=2.5uA/Vbr=13.5V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞬态电压抑制二极管(TVS)-SMF45CA-Vrmw=45V/Ipp=2.8A/Ir=1uA/Vbr=55.3V-TWGMC(台湾迪嘉)-SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.8A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,9 +781,6 @@
     <t>SF020200000006</t>
   </si>
   <si>
-    <t>SF020300000003</t>
-  </si>
-  <si>
     <t>SF020100000015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,11 +804,127 @@
     <t>G:\Library\Datasheet\02_Semiconductor\1N4148WS_JSCJ_DS_20250403.pdf</t>
   </si>
   <si>
-    <t>开关二极管-1N4148WS-Vf=0.715V~1.25V/If=0.3A/Ir=1.0uA/Vrmw=100V-JSCJ(江苏长电)-SOD-323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020100000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2827654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECH PUBLIC(台舟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\USBLC6-2SC6_TECHPUBLIC_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>1.8mm*1.3mm*0.9mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.05mm*3.00mm*1.45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF5.0CA-Vrwm=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF3.3A-Vrwm=3.3V/Ipp=25A/Ir=200uA/Vbr=6V-MSKSEMI(美森科)-SOD-123</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF5.0A-Vrwm=5.0V/Ipp=21.7A/Ir=200uA/Vbr=7V-TWGMC(台湾迪嘉)-SOD-123</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF6.5CA-Vrwm=6.5V/Ipp=17.9A/Ir=75uA/Vbr=7.98V-TWGMC(台湾迪嘉)-SOD-123</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF11A-Vrwm=11V/Ipp=11A/Ir=2.5uA/Vbr=13.5V-TWGMC(台湾迪嘉)-SOD-123</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMF45CA-Vrwm=45V/Ipp=2.8A/Ir=1uA/Vbr=55.3V-TWGMC(台湾迪嘉)-SOD-123</t>
+  </si>
+  <si>
+    <t>开关二极管-1N4148WS-Vf=0.715V~1.25V/If=0.3A/Ir=1.0uA/Vrwm=100V-JSCJ(江苏长电)-SOD-323</t>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-USBLC6-2SC6-Vrwm=5V/Ipp=6.0A/Ir=0.08uA/Vbr=6V-TECH PUBLIC(台舟)-SOT-23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020300000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020300000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C88052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO3409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\AO3409_AOS_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>NMOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P沟道场效应管-AO3409-Vgs=1.4V~2.4V/Id=2.6A/Vds=-30V/Rds=0.18Ω-AOS-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMOS_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,12 +1305,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1325,7 @@
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -1272,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>13</v>
@@ -1307,7 +1396,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>70</v>
@@ -1349,7 +1438,7 @@
         <v>92</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>69</v>
@@ -1360,7 +1449,7 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1402,7 +1491,7 @@
         <v>92</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>69</v>
@@ -1413,7 +1502,7 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>93</v>
@@ -1455,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>69</v>
@@ -1466,7 +1555,7 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>101</v>
@@ -1508,7 +1597,7 @@
         <v>110</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>45</v>
@@ -1519,7 +1608,7 @@
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -1561,7 +1650,7 @@
         <v>92</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>69</v>
@@ -1572,7 +1661,7 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>117</v>
@@ -1587,7 +1676,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>116</v>
@@ -1608,7 +1697,7 @@
         <v>118</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>119</v>
@@ -1617,7 +1706,7 @@
         <v>31</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>69</v>
@@ -1628,7 +1717,7 @@
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>121</v>
@@ -1670,7 +1759,7 @@
         <v>92</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>69</v>
@@ -1681,7 +1770,7 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>129</v>
@@ -1723,7 +1812,7 @@
         <v>31</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>69</v>
@@ -1734,10 +1823,10 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>64</v>
@@ -1749,10 +1838,10 @@
         <v>130</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>27</v>
@@ -1761,16 +1850,16 @@
         <v>103</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>131</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>119</v>
@@ -1779,10 +1868,10 @@
         <v>92</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>115</v>
@@ -1790,22 +1879,22 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>87</v>
@@ -1814,28 +1903,28 @@
         <v>27</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>112</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>110</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>86</v>
@@ -1843,25 +1932,25 @@
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>27</v>
@@ -1870,16 +1959,16 @@
         <v>103</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>118</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>119</v>
@@ -1888,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>69</v>
@@ -1899,22 +1988,22 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>116</v>
@@ -1926,16 +2015,16 @@
         <v>103</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>119</v>
@@ -1944,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>69</v>
@@ -1955,25 +2044,25 @@
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>27</v>
@@ -1982,16 +2071,16 @@
         <v>103</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>119</v>
@@ -2000,7 +2089,7 @@
         <v>31</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>69</v>
@@ -2011,22 +2100,22 @@
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>116</v>
@@ -2038,16 +2127,16 @@
         <v>103</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>119</v>
@@ -2056,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>69</v>
@@ -2067,22 +2156,22 @@
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>73</v>
@@ -2091,19 +2180,19 @@
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>58</v>
@@ -2111,90 +2200,93 @@
       <c r="P16" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="S16" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="T16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>25</v>
+        <v>211</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>27</v>
@@ -2206,7 +2298,7 @@
         <v>72</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>29</v>
@@ -2224,89 +2316,89 @@
         <v>34</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>27</v>
@@ -2318,7 +2410,7 @@
         <v>72</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>52</v>
@@ -2336,89 +2428,89 @@
         <v>46</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>27</v>
@@ -2430,7 +2522,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>52</v>
@@ -2448,63 +2540,178 @@
         <v>60</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="M23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>175</v>
+      <c r="T24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F886AC-AEA5-4B0F-8111-27B17AEDC17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71AEC4-4494-4014-B8E8-DE73745F14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="267">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +925,113 @@
   </si>
   <si>
     <t>PMOS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> YONGYUTAI(永裕泰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020300000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2891732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI2302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SI2302_YONGYUTAI_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>N沟道场效应管-SI2302-Vgs=0.5V~1.0V/Id=3.0A/Vds=20V/Rds=45mΩ-YONGYUTAI(永裕泰)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN三极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP三极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020300000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP30P30Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5mm*3.5mm*1.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\105-DFN.PcbLib</t>
+  </si>
+  <si>
+    <t>DFN8-3x3-EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALLPOWER(铨力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\AP30P30Q_ALLPOWER_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>C471913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMOS_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P沟道场效应管-AP30P30Q-Vgs=0.8V~2.0V/Id=30A/Vds=-30V/Rds=10mΩ- ALLPOWER(铨力)-DFN8-3x3-EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020100000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C107594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM1Z3V9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(先科)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\MM1Z3V9_ST_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>稳压二极管-MM1Z3V9-Vz=3.9V/Vf=0.9V/Ir=5uA-ST(先科)-SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,12 +1412,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2268,81 +2375,78 @@
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="S18" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>25</v>
+        <v>263</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
@@ -2354,7 +2458,7 @@
         <v>72</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>29</v>
@@ -2376,85 +2480,91 @@
       </c>
       <c r="T19" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>27</v>
@@ -2466,7 +2576,7 @@
         <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>52</v>
@@ -2488,85 +2598,91 @@
       </c>
       <c r="T21" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>27</v>
@@ -2578,7 +2694,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>52</v>
@@ -2600,85 +2716,91 @@
       </c>
       <c r="T23" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>27</v>
@@ -2690,16 +2812,16 @@
         <v>72</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>173</v>
@@ -2708,9 +2830,177 @@
         <v>177</v>
       </c>
       <c r="T25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U26" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>233</v>
       </c>
     </row>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71AEC4-4494-4014-B8E8-DE73745F14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFFB03-0320-4459-BC70-D3C3C78F474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,10 +1414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFFB03-0320-4459-BC70-D3C3C78F474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A9F00-6CD0-4C86-84B3-0F10B1E963F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="289">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,6 +1032,90 @@
   </si>
   <si>
     <t>4.1 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESD8D5.0CAT5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020100000018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C172411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(乐山无线电)</t>
+  </si>
+  <si>
+    <t>SOD-882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\LESD8D5.0CAT5G_LRC_DS_20250409.pdf</t>
+  </si>
+  <si>
+    <t>ESD_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静电放电保护二极管(ESD)</t>
+  </si>
+  <si>
+    <t>1.05mmx0.65mmx0.50mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静电放电保护二极管(ESD)-LESD8D5.0CAT5G-Vrwm=5.0V/Ipp=5.5A/Ir=0.3uA/Vbr=8.0V-LRC(乐山无线电)-SOD-882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ12CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF020100000019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOODWORK(固得沃克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C908845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\SMBJ_ GOODWORK_DS_20250409.pdf</t>
+  </si>
+  <si>
+    <t>5.59mm*3.54mm*2.44mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬态电压抑制二极管(TVS)-SMBJ12CA-Vrwm=12V/Ipp=30.2A/Ir=5uA/Vbr=13.3V- GOODWORK(固得沃克)-SMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.2A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,12 +1496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2428,176 +2512,170 @@
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="S19" s="4" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="S20" s="4" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>246</v>
@@ -2605,58 +2683,58 @@
     </row>
     <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>247</v>
@@ -2664,58 +2742,58 @@
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>246</v>
@@ -2723,58 +2801,58 @@
     </row>
     <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>247</v>
@@ -2782,134 +2860,140 @@
     </row>
     <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>170</v>
@@ -2924,25 +3008,25 @@
         <v>72</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>177</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>232</v>
@@ -2950,57 +3034,169 @@
     </row>
     <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>235</v>
       </c>
       <c r="N28" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U30" s="5" t="s">
         <v>233</v>
       </c>
     </row>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A9F00-6CD0-4C86-84B3-0F10B1E963F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0F8EE-4A02-4A43-8E14-9E2303FFA3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,70 +721,6 @@
     <t>3mm*3mm*1.3mm</t>
   </si>
   <si>
-    <t>SF020100000001</t>
-  </si>
-  <si>
-    <t>SF020100000002</t>
-  </si>
-  <si>
-    <t>SF020100000003</t>
-  </si>
-  <si>
-    <t>SF020100000004</t>
-  </si>
-  <si>
-    <t>SF020100000005</t>
-  </si>
-  <si>
-    <t>SF020100000006</t>
-  </si>
-  <si>
-    <t>SF020100000007</t>
-  </si>
-  <si>
-    <t>SF020100000008</t>
-  </si>
-  <si>
-    <t>SF020100000009</t>
-  </si>
-  <si>
-    <t>SF020100000010</t>
-  </si>
-  <si>
-    <t>SF020100000011</t>
-  </si>
-  <si>
-    <t>SF020100000012</t>
-  </si>
-  <si>
-    <t>SF020100000013</t>
-  </si>
-  <si>
-    <t>SF020100000014</t>
-  </si>
-  <si>
-    <t>SF020200000001</t>
-  </si>
-  <si>
-    <t>SF020200000002</t>
-  </si>
-  <si>
-    <t>SF020200000003</t>
-  </si>
-  <si>
-    <t>SF020200000004</t>
-  </si>
-  <si>
-    <t>SF020200000005</t>
-  </si>
-  <si>
-    <t>SF020200000006</t>
-  </si>
-  <si>
-    <t>SF020100000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020100000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2827654</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,14 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020300000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF020300000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C88052</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,10 +856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020300000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2891732</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,10 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020300000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AP30P30Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020100000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C107594</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020100000018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C172411</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF020100000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SMB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,6 +1021,93 @@
   <si>
     <t>30.2A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF02010001</t>
+  </si>
+  <si>
+    <t>SF02010002</t>
+  </si>
+  <si>
+    <t>SF02010003</t>
+  </si>
+  <si>
+    <t>SF02010004</t>
+  </si>
+  <si>
+    <t>SF02010005</t>
+  </si>
+  <si>
+    <t>SF02010006</t>
+  </si>
+  <si>
+    <t>SF02010007</t>
+  </si>
+  <si>
+    <t>SF02010008</t>
+  </si>
+  <si>
+    <t>SF02010009</t>
+  </si>
+  <si>
+    <t>SF02010010</t>
+  </si>
+  <si>
+    <t>SF02010011</t>
+  </si>
+  <si>
+    <t>SF02010012</t>
+  </si>
+  <si>
+    <t>SF02010013</t>
+  </si>
+  <si>
+    <t>SF02010014</t>
+  </si>
+  <si>
+    <t>SF02010015</t>
+  </si>
+  <si>
+    <t>SF02010016</t>
+  </si>
+  <si>
+    <t>SF02010017</t>
+  </si>
+  <si>
+    <t>SF02010018</t>
+  </si>
+  <si>
+    <t>SF02010019</t>
+  </si>
+  <si>
+    <t>SF02020001</t>
+  </si>
+  <si>
+    <t>SF02020002</t>
+  </si>
+  <si>
+    <t>SF02020003</t>
+  </si>
+  <si>
+    <t>SF02020004</t>
+  </si>
+  <si>
+    <t>SF02020005</t>
+  </si>
+  <si>
+    <t>SF02020006</t>
+  </si>
+  <si>
+    <t>SF02030001</t>
+  </si>
+  <si>
+    <t>SF02030002</t>
+  </si>
+  <si>
+    <t>SF02030003</t>
+  </si>
+  <si>
+    <t>SF02030004</t>
   </si>
 </sst>
 </file>
@@ -1501,26 +1492,26 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1585,9 +1576,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>70</v>
@@ -1638,9 +1629,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -1691,9 +1682,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>93</v>
@@ -1744,9 +1735,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>101</v>
@@ -1797,9 +1788,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -1850,9 +1841,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>117</v>
@@ -1867,7 +1858,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>116</v>
@@ -1906,9 +1897,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>121</v>
@@ -1959,9 +1950,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>129</v>
@@ -2012,9 +2003,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>136</v>
@@ -2029,7 +2020,7 @@
         <v>130</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>132</v>
@@ -2068,9 +2059,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>138</v>
@@ -2121,9 +2112,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>148</v>
@@ -2138,7 +2129,7 @@
         <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>132</v>
@@ -2177,9 +2168,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>152</v>
@@ -2194,7 +2185,7 @@
         <v>149</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>116</v>
@@ -2233,9 +2224,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>159</v>
@@ -2250,7 +2241,7 @@
         <v>153</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>132</v>
@@ -2289,9 +2280,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>160</v>
@@ -2306,7 +2297,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>116</v>
@@ -2345,24 +2336,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>73</v>
@@ -2371,16 +2362,16 @@
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>140</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>171</v>
@@ -2392,89 +2383,89 @@
         <v>31</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>102</v>
@@ -2489,10 +2480,10 @@
         <v>140</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>105</v>
@@ -2504,51 +2495,51 @@
         <v>175</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>140</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>58</v>
@@ -2557,33 +2548,33 @@
         <v>31</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>116</v>
@@ -2592,39 +2583,39 @@
         <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>112</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -2678,12 +2669,12 @@
         <v>25</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>35</v>
@@ -2737,12 +2728,12 @@
         <v>25</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>36</v>
@@ -2796,12 +2787,12 @@
         <v>45</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
@@ -2855,12 +2846,12 @@
         <v>45</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>47</v>
@@ -2914,12 +2905,12 @@
         <v>48</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -2973,12 +2964,12 @@
         <v>48</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>165</v>
@@ -3029,30 +3020,30 @@
         <v>169</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>27</v>
@@ -3064,16 +3055,16 @@
         <v>72</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>173</v>
@@ -3082,30 +3073,30 @@
         <v>177</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>170</v>
@@ -3120,10 +3111,10 @@
         <v>72</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>91</v>
@@ -3138,66 +3129,66 @@
         <v>177</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/02_Semiconductor.xlsx
+++ b/AD_Library/Excel/02_Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0F8EE-4A02-4A43-8E14-9E2303FFA3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9266834-0CB8-4713-8EF0-3F5CBEF7235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="296">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,32 @@
   </si>
   <si>
     <t>SF02030004</t>
+  </si>
+  <si>
+    <t>SF02010020</t>
+  </si>
+  <si>
+    <t>C172409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESD8D3.3CAT5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\02_Semiconductor\LESD8D3.3CAT5G_LRC_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静电放电保护二极管(ESD)-LESD8D3.3CAT5G-Vrwm=3.3V/Ipp=6.0A/Ir=0.1uA/Vbr=6.5V-LRC(乐山无线电)-SOD-882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1487,12 +1513,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A2:A30"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2615,84 +2641,81 @@
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="S21" s="4" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>27</v>
@@ -2704,7 +2727,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>29</v>
@@ -2728,89 +2751,89 @@
         <v>25</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>27</v>
@@ -2822,7 +2845,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>52</v>
@@ -2846,89 +2869,89 @@
         <v>45</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>27</v>
@@ -2940,7 +2963,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>52</v>
@@ -2964,86 +2987,89 @@
         <v>48</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>27</v>
@@ -3055,16 +3081,16 @@
         <v>72</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>173</v>
@@ -3073,33 +3099,33 @@
         <v>177</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>27</v>
@@ -3111,83 +3137,139 @@
         <v>72</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>177</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U31" s="5" t="s">
         <v>209</v>
       </c>
     </row>
